--- a/Test Scenarios (splitwise).xlsx
+++ b/Test Scenarios (splitwise).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0839A9-CDB4-475D-8267-3E3BF5C36203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523DEDF-D522-4A3B-8604-B32083D12A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>

--- a/Test Scenarios (splitwise).xlsx
+++ b/Test Scenarios (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C523DEDF-D522-4A3B-8604-B32083D12A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691F1CA-E3C1-45E9-ADDA-2E77F7C87AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -59,6 +59,23 @@
   </si>
   <si>
     <t>Validte the functionality of the Register Account.</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Login Account.</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>(TS_002)
+Login functionality</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Forget Password functionality</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Forget Password.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +525,7 @@
   <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,29 +566,56 @@
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <f>SUM(F4:F6)</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>

--- a/Test Scenarios (splitwise).xlsx
+++ b/Test Scenarios (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691F1CA-E3C1-45E9-ADDA-2E77F7C87AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946219C4-A6E8-4FE2-83C7-580A36520D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -76,6 +76,13 @@
   </si>
   <si>
     <t>Validte the functionality of the Forget Password.</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Dropdown Header &gt; Your account.</t>
+  </si>
+  <si>
+    <t>(TS_004)
+Header_Your account</t>
   </si>
 </sst>
 </file>
@@ -525,7 +532,7 @@
   <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -604,18 +611,21 @@
         <v>9</v>
       </c>
       <c r="F6" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4">
-        <f>SUM(F4:F6)</f>
-        <v>59</v>
-      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>

--- a/Test Scenarios (splitwise).xlsx
+++ b/Test Scenarios (splitwise).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946219C4-A6E8-4FE2-83C7-580A36520D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6747E1C2-A94A-4C11-A6FD-73E54586ADDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,13 +625,18 @@
         <v>13</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4">
+        <f>SUM(F4:F7)</f>
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>

--- a/Test Scenarios (splitwise).xlsx
+++ b/Test Scenarios (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6747E1C2-A94A-4C11-A6FD-73E54586ADDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038AD9F8-9524-4004-8E65-85F2BF247EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -83,6 +83,20 @@
   <si>
     <t>(TS_004)
 Header_Your account</t>
+  </si>
+  <si>
+    <t>(TS_005)
+Header_Create Group</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Dropdown Header &gt; Create Group.</t>
+  </si>
+  <si>
+    <t>(TS_006)
+Header_Fairness Calculator</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Dropdown Header &gt; Fairness Calculator.</t>
   </si>
 </sst>
 </file>
@@ -532,7 +546,7 @@
   <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,28 +640,43 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="F8" s="4">
-        <f>SUM(F4:F7)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
+      <c r="F10" s="4">
+        <f>SUM(F4:F9)</f>
+        <v>123</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>

--- a/Test Scenarios (splitwise).xlsx
+++ b/Test Scenarios (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038AD9F8-9524-4004-8E65-85F2BF247EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D02F5E-E2C9-4F40-A8AA-D5246188C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -92,11 +92,46 @@
     <t>Validte the functionality of the Dropdown Header &gt; Create Group.</t>
   </si>
   <si>
+    <t>Validte the functionality of the Dropdown Header &gt; Contact Support.</t>
+  </si>
+  <si>
     <t>(TS_006)
-Header_Fairness Calculator</t>
-  </si>
-  <si>
-    <t>Validte the functionality of the Dropdown Header &gt; Fairness Calculator.</t>
+Header_Contact Support</t>
+  </si>
+  <si>
+    <t>(TS_007)
+Header_Contact Support</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Dropdown Header &gt; Logout.</t>
+  </si>
+  <si>
+    <t>(TS_008)
+Home Page_ Dash Board</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Home Page &gt; Dash Board.</t>
+  </si>
+  <si>
+    <t>(TS_009)
+Home Page_ Recent Activity</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Home Page &gt; Recent Activity.</t>
+  </si>
+  <si>
+    <t>(TS_010)
+Home Page_ All Expenses</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Home Page &gt; All Expenses.</t>
+  </si>
+  <si>
+    <t>(TS_011)
+Home Page_ Groups</t>
+  </si>
+  <si>
+    <t>Validte the functionality of the Home Page &gt; Groups.</t>
   </si>
 </sst>
 </file>
@@ -543,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,31 +692,106 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" s="4">
-        <f>SUM(F4:F9)</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <f>SUM(F4:F14)</f>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <f>F16-F15</f>
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Scenarios (splitwise).xlsx
+++ b/Test Scenarios (splitwise).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Splitwise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D02F5E-E2C9-4F40-A8AA-D5246188C8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE4FC4-5727-4A5C-8DEA-9F2D6EAF0C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -578,9 +578,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:F17"/>
+  <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -773,24 +773,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="2">
-        <f>SUM(F4:F14)</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="2">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="2">
-        <f>F16-F15</f>
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
